--- a/数据表/决战江湖1.66全称号及奖励.xlsx
+++ b/数据表/决战江湖1.66全称号及奖励.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="167">
   <si>
     <t>决战江湖1.5+全称号获得及奖励</t>
   </si>
@@ -112,6 +112,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.称号获得机会只有一次，掌门的</t>
     </r>
     <r>
@@ -657,9 +663,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -691,6 +697,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -699,7 +720,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -721,14 +749,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -743,10 +764,18 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -758,9 +787,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -774,6 +803,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -782,52 +825,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -880,7 +886,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -892,157 +1042,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1176,26 +1182,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1211,41 +1197,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1267,9 +1223,59 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1281,10 +1287,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1293,137 +1299,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1454,30 +1460,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1496,27 +1490,9 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1526,9 +1502,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1543,9 +1516,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1600,6 +1570,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1882,30 +1857,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:Q159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A19" activePane="bottomLeft" state="frozenSplit"/>
+      <pane ySplit="2" topLeftCell="A74" activePane="bottomLeft" state="frozenSplit"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
+      <selection pane="bottomLeft" activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="2" max="2" width="21.625" customWidth="1"/>
+    <col min="2" max="2" width="21.6296296296296" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="10.375" customWidth="1"/>
-    <col min="6" max="6" width="11.125" customWidth="1"/>
-    <col min="7" max="7" width="33.875" customWidth="1"/>
+    <col min="5" max="5" width="10.3796296296296" customWidth="1"/>
+    <col min="6" max="6" width="11.1296296296296" customWidth="1"/>
+    <col min="7" max="7" width="33.8796296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="33.75" customHeight="1" spans="1:7">
@@ -1952,7 +1926,7 @@
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
     </row>
-    <row r="3" ht="14.25" spans="1:17">
+    <row r="3" ht="15.6" spans="1:17">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -1999,106 +1973,106 @@
       <c r="G4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
     </row>
     <row r="5" ht="49" customHeight="1" spans="1:17">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="8"/>
+      <c r="B5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="10">
         <v>200</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="10">
         <v>200</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="10">
         <v>200</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
     </row>
     <row r="6" ht="57" customHeight="1" spans="1:17">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11" t="s">
+      <c r="A6" s="8"/>
+      <c r="B6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="10">
         <v>200</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="10">
         <v>200</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="10">
         <v>200</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
     </row>
     <row r="7" ht="65" customHeight="1" spans="1:17">
-      <c r="A7" s="15"/>
-      <c r="B7" s="13" t="s">
+      <c r="A7" s="13"/>
+      <c r="B7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="10">
         <v>200</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="10">
         <v>220</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="10">
         <v>200</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
     </row>
-    <row r="8" ht="14.25" spans="1:17">
-      <c r="A8" s="18"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
+    <row r="8" ht="15.6" spans="1:17">
+      <c r="A8" s="14"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
       <c r="G8" s="5"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
     </row>
     <row r="9" ht="17.25" customHeight="1" spans="1:17">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="15" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -2115,14 +2089,14 @@
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
     </row>
     <row r="10" ht="30" customHeight="1" spans="1:17">
-      <c r="A10" s="19"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="6" t="s">
         <v>25</v>
       </c>
@@ -2137,21 +2111,21 @@
       <c r="G10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="20"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="32" t="s">
+      <c r="H10" s="16"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33"/>
-    </row>
-    <row r="11" ht="28.5" spans="1:17">
-      <c r="A11" s="19"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+    </row>
+    <row r="11" ht="31.2" spans="1:17">
+      <c r="A11" s="15"/>
       <c r="B11" s="6" t="s">
         <v>29</v>
       </c>
@@ -2164,19 +2138,19 @@
         <v>600</v>
       </c>
       <c r="G11" s="6"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="33"/>
-    </row>
-    <row r="12" ht="42.75" spans="1:17">
-      <c r="A12" s="19"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+    </row>
+    <row r="12" ht="46.8" spans="1:17">
+      <c r="A12" s="15"/>
       <c r="B12" s="6" t="s">
         <v>31</v>
       </c>
@@ -2195,17 +2169,17 @@
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="33"/>
-    </row>
-    <row r="13" ht="28.5" spans="1:17">
-      <c r="A13" s="19"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+    </row>
+    <row r="13" ht="31.2" spans="1:17">
+      <c r="A13" s="15"/>
       <c r="B13" s="6" t="s">
         <v>34</v>
       </c>
@@ -2220,22 +2194,22 @@
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="33"/>
-    </row>
-    <row r="14" ht="14.25" spans="1:17">
-      <c r="A14" s="18"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+    </row>
+    <row r="14" ht="15.6" spans="1:17">
+      <c r="A14" s="14"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
       <c r="G14" s="5"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -2248,7 +2222,7 @@
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
     </row>
-    <row r="15" ht="14.25" spans="1:17">
+    <row r="15" ht="15.6" spans="1:17">
       <c r="A15" s="4" t="s">
         <v>37</v>
       </c>
@@ -2275,7 +2249,7 @@
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
     </row>
-    <row r="16" ht="57" spans="1:17">
+    <row r="16" ht="62.4" spans="1:17">
       <c r="A16" s="8"/>
       <c r="B16" s="5" t="s">
         <v>39</v>
@@ -2302,24 +2276,24 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
     </row>
-    <row r="17" ht="57" spans="1:17">
-      <c r="A17" s="15"/>
-      <c r="B17" s="13" t="s">
+    <row r="17" ht="62.4" spans="1:17">
+      <c r="A17" s="13"/>
+      <c r="B17" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="10">
         <v>500</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="10">
         <v>500</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="10">
         <v>500</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="G17" s="12" t="s">
         <v>44</v>
       </c>
       <c r="H17" s="3"/>
@@ -2333,13 +2307,13 @@
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
     </row>
-    <row r="18" ht="14.25" spans="1:17">
-      <c r="A18" s="18"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
+    <row r="18" ht="15.6" spans="1:17">
+      <c r="A18" s="14"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
       <c r="G18" s="5"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -2352,7 +2326,7 @@
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
     </row>
-    <row r="19" ht="14.25" spans="1:17">
+    <row r="19" ht="15.6" spans="1:17">
       <c r="A19" s="4" t="s">
         <v>45</v>
       </c>
@@ -2381,7 +2355,7 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
     </row>
-    <row r="20" ht="42.75" spans="1:17">
+    <row r="20" ht="46.8" spans="1:17">
       <c r="A20" s="8"/>
       <c r="B20" s="5" t="s">
         <v>47</v>
@@ -2408,24 +2382,24 @@
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
     </row>
-    <row r="21" ht="42.75" spans="1:17">
-      <c r="A21" s="15"/>
-      <c r="B21" s="13" t="s">
+    <row r="21" ht="46.8" spans="1:17">
+      <c r="A21" s="13"/>
+      <c r="B21" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="10">
         <v>250</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="10">
         <v>250</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="10">
         <v>250</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="12" t="s">
         <v>52</v>
       </c>
       <c r="H21" s="3"/>
@@ -2439,13 +2413,13 @@
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
     </row>
-    <row r="22" ht="14.25" spans="1:17">
-      <c r="A22" s="18"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
+    <row r="22" ht="15.6" spans="1:17">
+      <c r="A22" s="14"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
       <c r="G22" s="5"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -2458,8 +2432,8 @@
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
     </row>
-    <row r="23" ht="14.25" spans="1:17">
-      <c r="A23" s="19" t="s">
+    <row r="23" ht="15.6" spans="1:17">
+      <c r="A23" s="15" t="s">
         <v>53</v>
       </c>
       <c r="B23" s="6" t="s">
@@ -2485,8 +2459,8 @@
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
     </row>
-    <row r="24" ht="57" spans="1:17">
-      <c r="A24" s="19"/>
+    <row r="24" ht="62.4" spans="1:17">
+      <c r="A24" s="15"/>
       <c r="B24" s="6" t="s">
         <v>55</v>
       </c>
@@ -2512,8 +2486,8 @@
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
     </row>
-    <row r="25" ht="42.75" spans="1:17">
-      <c r="A25" s="19"/>
+    <row r="25" ht="46.8" spans="1:17">
+      <c r="A25" s="15"/>
       <c r="B25" s="6" t="s">
         <v>58</v>
       </c>
@@ -2543,13 +2517,13 @@
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
     </row>
-    <row r="26" ht="14.25" spans="1:17">
-      <c r="A26" s="18"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
+    <row r="26" ht="15.6" spans="1:17">
+      <c r="A26" s="14"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
       <c r="G26" s="5"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -2562,8 +2536,8 @@
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
     </row>
-    <row r="27" ht="14.25" spans="1:17">
-      <c r="A27" s="19" t="s">
+    <row r="27" ht="15.6" spans="1:17">
+      <c r="A27" s="15" t="s">
         <v>61</v>
       </c>
       <c r="B27" s="6" t="s">
@@ -2587,8 +2561,8 @@
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
     </row>
-    <row r="28" ht="42.75" spans="1:17">
-      <c r="A28" s="19"/>
+    <row r="28" ht="46.8" spans="1:17">
+      <c r="A28" s="15"/>
       <c r="B28" s="6" t="s">
         <v>63</v>
       </c>
@@ -2618,8 +2592,8 @@
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
     </row>
-    <row r="29" ht="28.5" spans="1:17">
-      <c r="A29" s="19"/>
+    <row r="29" ht="31.2" spans="1:17">
+      <c r="A29" s="15"/>
       <c r="B29" s="6" t="s">
         <v>66</v>
       </c>
@@ -2645,7 +2619,7 @@
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
     </row>
-    <row r="30" ht="14.25" spans="1:17">
+    <row r="30" ht="15.6" spans="1:17">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -2664,8 +2638,8 @@
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
     </row>
-    <row r="31" ht="28.5" spans="1:17">
-      <c r="A31" s="19" t="s">
+    <row r="31" ht="31.2" spans="1:17">
+      <c r="A31" s="15" t="s">
         <v>69</v>
       </c>
       <c r="B31" s="6" t="s">
@@ -2695,8 +2669,8 @@
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
     </row>
-    <row r="32" ht="14.25" spans="1:17">
-      <c r="A32" s="19"/>
+    <row r="32" ht="15.6" spans="1:17">
+      <c r="A32" s="15"/>
       <c r="B32" s="6" t="s">
         <v>72</v>
       </c>
@@ -2720,8 +2694,8 @@
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
     </row>
-    <row r="33" ht="14.25" spans="1:17">
-      <c r="A33" s="19"/>
+    <row r="33" ht="15.6" spans="1:17">
+      <c r="A33" s="15"/>
       <c r="B33" s="6" t="s">
         <v>74</v>
       </c>
@@ -2745,8 +2719,8 @@
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
     </row>
-    <row r="34" ht="42.75" spans="1:17">
-      <c r="A34" s="19"/>
+    <row r="34" ht="46.8" spans="1:17">
+      <c r="A34" s="15"/>
       <c r="B34" s="6" t="s">
         <v>76</v>
       </c>
@@ -2772,8 +2746,8 @@
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
     </row>
-    <row r="35" ht="42.75" spans="1:17">
-      <c r="A35" s="19"/>
+    <row r="35" ht="46.8" spans="1:17">
+      <c r="A35" s="15"/>
       <c r="B35" s="6" t="s">
         <v>79</v>
       </c>
@@ -2801,13 +2775,13 @@
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
     </row>
-    <row r="36" ht="14.25" spans="1:17">
-      <c r="A36" s="18"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
+    <row r="36" ht="15.6" spans="1:17">
+      <c r="A36" s="14"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
       <c r="G36" s="5"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -2820,8 +2794,8 @@
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
     </row>
-    <row r="37" ht="14.25" spans="1:17">
-      <c r="A37" s="21" t="s">
+    <row r="37" ht="15.6" spans="1:17">
+      <c r="A37" s="17" t="s">
         <v>82</v>
       </c>
       <c r="B37" s="6" t="s">
@@ -2847,8 +2821,8 @@
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
     </row>
-    <row r="38" ht="57" spans="1:17">
-      <c r="A38" s="22"/>
+    <row r="38" ht="62.4" spans="1:17">
+      <c r="A38" s="18"/>
       <c r="B38" s="6" t="s">
         <v>84</v>
       </c>
@@ -2878,8 +2852,8 @@
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
     </row>
-    <row r="39" ht="28.5" spans="1:17">
-      <c r="A39" s="23"/>
+    <row r="39" ht="31.2" spans="1:17">
+      <c r="A39" s="19"/>
       <c r="B39" s="6" t="s">
         <v>87</v>
       </c>
@@ -2907,7 +2881,7 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
     </row>
-    <row r="40" ht="14.25" spans="1:17">
+    <row r="40" ht="15.6" spans="1:17">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -2926,8 +2900,8 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
     </row>
-    <row r="41" ht="14.25" spans="1:17">
-      <c r="A41" s="19" t="s">
+    <row r="41" ht="15.6" spans="1:17">
+      <c r="A41" s="15" t="s">
         <v>90</v>
       </c>
       <c r="B41" s="6" t="s">
@@ -2955,8 +2929,8 @@
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
     </row>
-    <row r="42" ht="28.5" spans="1:17">
-      <c r="A42" s="19"/>
+    <row r="42" ht="31.2" spans="1:17">
+      <c r="A42" s="15"/>
       <c r="B42" s="6" t="s">
         <v>92</v>
       </c>
@@ -2982,8 +2956,8 @@
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
     </row>
-    <row r="43" ht="28.5" spans="1:17">
-      <c r="A43" s="19"/>
+    <row r="43" ht="31.2" spans="1:17">
+      <c r="A43" s="15"/>
       <c r="B43" s="6" t="s">
         <v>95</v>
       </c>
@@ -3009,13 +2983,13 @@
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
     </row>
-    <row r="44" ht="14.25" spans="1:17">
-      <c r="A44" s="18"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
+    <row r="44" ht="15.6" spans="1:17">
+      <c r="A44" s="14"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
       <c r="G44" s="5"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
@@ -3028,8 +3002,8 @@
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
     </row>
-    <row r="45" ht="14.25" spans="1:17">
-      <c r="A45" s="19" t="s">
+    <row r="45" ht="15.6" spans="1:17">
+      <c r="A45" s="15" t="s">
         <v>98</v>
       </c>
       <c r="B45" s="6" t="s">
@@ -3057,8 +3031,8 @@
       <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
     </row>
-    <row r="46" ht="42.75" spans="1:17">
-      <c r="A46" s="19"/>
+    <row r="46" ht="46.8" spans="1:17">
+      <c r="A46" s="15"/>
       <c r="B46" s="6" t="s">
         <v>100</v>
       </c>
@@ -3086,13 +3060,13 @@
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
     </row>
-    <row r="47" ht="14.25" spans="1:17">
-      <c r="A47" s="18"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
+    <row r="47" ht="15.6" spans="1:17">
+      <c r="A47" s="14"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
       <c r="G47" s="5"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
@@ -3105,8 +3079,8 @@
       <c r="P47" s="3"/>
       <c r="Q47" s="3"/>
     </row>
-    <row r="48" ht="14.25" spans="1:17">
-      <c r="A48" s="19" t="s">
+    <row r="48" ht="15.6" spans="1:17">
+      <c r="A48" s="15" t="s">
         <v>103</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -3134,8 +3108,8 @@
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
     </row>
-    <row r="49" ht="28.5" spans="1:17">
-      <c r="A49" s="19"/>
+    <row r="49" ht="31.2" spans="1:17">
+      <c r="A49" s="15"/>
       <c r="B49" s="6" t="s">
         <v>105</v>
       </c>
@@ -3165,8 +3139,8 @@
       <c r="P49" s="3"/>
       <c r="Q49" s="3"/>
     </row>
-    <row r="50" ht="28.5" spans="1:17">
-      <c r="A50" s="19"/>
+    <row r="50" ht="31.2" spans="1:17">
+      <c r="A50" s="15"/>
       <c r="B50" s="6" t="s">
         <v>108</v>
       </c>
@@ -3192,13 +3166,13 @@
       <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
     </row>
-    <row r="51" ht="14.25" spans="1:17">
-      <c r="A51" s="18"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
+    <row r="51" ht="15.6" spans="1:17">
+      <c r="A51" s="14"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
       <c r="G51" s="5"/>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
@@ -3211,7 +3185,7 @@
       <c r="P51" s="3"/>
       <c r="Q51" s="3"/>
     </row>
-    <row r="52" ht="14.25" spans="1:17">
+    <row r="52" ht="15.6" spans="1:17">
       <c r="A52" s="4" t="s">
         <v>111</v>
       </c>
@@ -3242,24 +3216,24 @@
       <c r="P52" s="3"/>
       <c r="Q52" s="3"/>
     </row>
-    <row r="53" ht="57" spans="1:17">
-      <c r="A53" s="24"/>
-      <c r="B53" s="11" t="s">
+    <row r="53" ht="62.4" spans="1:17">
+      <c r="A53" s="8"/>
+      <c r="B53" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="C53" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="D53" s="25">
+      <c r="D53" s="10">
         <v>100</v>
       </c>
-      <c r="E53" s="25">
+      <c r="E53" s="10">
         <v>500</v>
       </c>
-      <c r="F53" s="25">
+      <c r="F53" s="10">
         <v>100</v>
       </c>
-      <c r="G53" s="14" t="s">
+      <c r="G53" s="12" t="s">
         <v>115</v>
       </c>
       <c r="H53" s="3"/>
@@ -3273,24 +3247,24 @@
       <c r="P53" s="3"/>
       <c r="Q53" s="3"/>
     </row>
-    <row r="54" ht="28.5" spans="1:17">
-      <c r="A54" s="15"/>
-      <c r="B54" s="13" t="s">
+    <row r="54" ht="31.2" spans="1:17">
+      <c r="A54" s="13"/>
+      <c r="B54" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="C54" s="16" t="s">
+      <c r="C54" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="D54" s="13">
+      <c r="D54" s="10">
         <v>280</v>
       </c>
-      <c r="E54" s="13">
+      <c r="E54" s="10">
         <v>280</v>
       </c>
-      <c r="F54" s="13">
+      <c r="F54" s="10">
         <v>320</v>
       </c>
-      <c r="G54" s="17" t="s">
+      <c r="G54" s="12" t="s">
         <v>118</v>
       </c>
       <c r="H54" s="3"/>
@@ -3304,13 +3278,13 @@
       <c r="P54" s="3"/>
       <c r="Q54" s="3"/>
     </row>
-    <row r="55" ht="14.25" spans="1:17">
-      <c r="A55" s="18"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
+    <row r="55" ht="15.6" spans="1:17">
+      <c r="A55" s="14"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
       <c r="G55" s="5"/>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
@@ -3323,7 +3297,7 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
     </row>
-    <row r="56" ht="14.25" spans="1:17">
+    <row r="56" ht="15.6" spans="1:17">
       <c r="A56" s="4" t="s">
         <v>119</v>
       </c>
@@ -3354,24 +3328,24 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
     </row>
-    <row r="57" ht="28.5" spans="1:17">
-      <c r="A57" s="15"/>
-      <c r="B57" s="13" t="s">
+    <row r="57" ht="31.2" spans="1:17">
+      <c r="A57" s="13"/>
+      <c r="B57" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="C57" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="D57" s="13">
+      <c r="D57" s="10">
         <v>200</v>
       </c>
-      <c r="E57" s="13">
+      <c r="E57" s="10">
         <v>250</v>
       </c>
-      <c r="F57" s="13">
+      <c r="F57" s="10">
         <v>200</v>
       </c>
-      <c r="G57" s="17" t="s">
+      <c r="G57" s="12" t="s">
         <v>123</v>
       </c>
       <c r="H57" s="3"/>
@@ -3385,13 +3359,13 @@
       <c r="P57" s="3"/>
       <c r="Q57" s="3"/>
     </row>
-    <row r="58" ht="14.25" spans="1:17">
-      <c r="A58" s="18"/>
-      <c r="B58" s="13"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
+    <row r="58" ht="15.6" spans="1:17">
+      <c r="A58" s="14"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
       <c r="G58" s="5"/>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
@@ -3404,8 +3378,8 @@
       <c r="P58" s="3"/>
       <c r="Q58" s="3"/>
     </row>
-    <row r="59" ht="14.25" spans="1:17">
-      <c r="A59" s="19" t="s">
+    <row r="59" ht="15.6" spans="1:17">
+      <c r="A59" s="15" t="s">
         <v>124</v>
       </c>
       <c r="B59" s="6" t="s">
@@ -3435,8 +3409,8 @@
       <c r="P59" s="3"/>
       <c r="Q59" s="3"/>
     </row>
-    <row r="60" ht="28.5" spans="1:17">
-      <c r="A60" s="19"/>
+    <row r="60" ht="62.4" spans="1:17">
+      <c r="A60" s="15"/>
       <c r="B60" s="6" t="s">
         <v>126</v>
       </c>
@@ -3460,14 +3434,14 @@
       <c r="P60" s="3"/>
       <c r="Q60" s="3"/>
     </row>
-    <row r="61" ht="14.25" spans="1:17">
-      <c r="A61" s="26"/>
-      <c r="B61" s="27"/>
-      <c r="C61" s="27"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="27"/>
-      <c r="F61" s="27"/>
-      <c r="G61" s="28"/>
+    <row r="61" ht="15.6" spans="1:17">
+      <c r="A61" s="20"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="12"/>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
@@ -3479,24 +3453,24 @@
       <c r="P61" s="3"/>
       <c r="Q61" s="3"/>
     </row>
-    <row r="62" ht="14.25" spans="1:17">
-      <c r="A62" s="29" t="s">
+    <row r="62" ht="15.6" spans="1:17">
+      <c r="A62" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B62" s="27" t="s">
+      <c r="B62" s="10" t="s">
         <v>130</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D62" s="27">
+      <c r="D62" s="10">
         <v>350</v>
       </c>
-      <c r="E62" s="27"/>
-      <c r="F62" s="27">
+      <c r="E62" s="10"/>
+      <c r="F62" s="10">
         <v>200</v>
       </c>
-      <c r="G62" s="28"/>
+      <c r="G62" s="12"/>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
@@ -3508,24 +3482,24 @@
       <c r="P62" s="3"/>
       <c r="Q62" s="3"/>
     </row>
-    <row r="63" ht="28.5" spans="1:17">
-      <c r="A63" s="30"/>
-      <c r="B63" s="27" t="s">
+    <row r="63" ht="31.2" spans="1:17">
+      <c r="A63" s="8"/>
+      <c r="B63" s="10" t="s">
         <v>131</v>
       </c>
       <c r="C63" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="D63" s="27">
+      <c r="D63" s="10">
         <v>200</v>
       </c>
-      <c r="E63" s="27">
+      <c r="E63" s="10">
         <v>400</v>
       </c>
-      <c r="F63" s="27">
+      <c r="F63" s="10">
         <v>300</v>
       </c>
-      <c r="G63" s="28" t="s">
+      <c r="G63" s="12" t="s">
         <v>133</v>
       </c>
       <c r="H63" s="3"/>
@@ -3539,22 +3513,22 @@
       <c r="P63" s="3"/>
       <c r="Q63" s="3"/>
     </row>
-    <row r="64" ht="14.25" spans="1:17">
-      <c r="A64" s="30"/>
-      <c r="B64" s="27" t="s">
+    <row r="64" ht="15.6" spans="1:17">
+      <c r="A64" s="8"/>
+      <c r="B64" s="10" t="s">
         <v>134</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D64" s="27">
+      <c r="D64" s="10">
         <v>200</v>
       </c>
-      <c r="E64" s="27"/>
-      <c r="F64" s="27">
+      <c r="E64" s="10"/>
+      <c r="F64" s="10">
         <v>350</v>
       </c>
-      <c r="G64" s="28"/>
+      <c r="G64" s="12"/>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
@@ -3566,24 +3540,24 @@
       <c r="P64" s="3"/>
       <c r="Q64" s="3"/>
     </row>
-    <row r="65" ht="28.5" spans="1:17">
-      <c r="A65" s="34"/>
-      <c r="B65" s="27" t="s">
+    <row r="65" ht="31.2" spans="1:17">
+      <c r="A65" s="13"/>
+      <c r="B65" s="10" t="s">
         <v>135</v>
       </c>
       <c r="C65" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="D65" s="27">
+      <c r="D65" s="10">
         <v>400</v>
       </c>
-      <c r="E65" s="27">
+      <c r="E65" s="10">
         <v>200</v>
       </c>
-      <c r="F65" s="27">
+      <c r="F65" s="10">
         <v>300</v>
       </c>
-      <c r="G65" s="28" t="s">
+      <c r="G65" s="12" t="s">
         <v>137</v>
       </c>
       <c r="H65" s="3"/>
@@ -3597,14 +3571,14 @@
       <c r="P65" s="3"/>
       <c r="Q65" s="3"/>
     </row>
-    <row r="66" ht="14.25" spans="1:17">
-      <c r="A66" s="35"/>
-      <c r="B66" s="36"/>
-      <c r="C66" s="36"/>
-      <c r="D66" s="36"/>
-      <c r="E66" s="36"/>
-      <c r="F66" s="36"/>
-      <c r="G66" s="37"/>
+    <row r="66" ht="15.6" spans="1:17">
+      <c r="A66" s="24"/>
+      <c r="B66" s="25"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="26"/>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
@@ -3616,26 +3590,26 @@
       <c r="P66" s="3"/>
       <c r="Q66" s="3"/>
     </row>
-    <row r="67" ht="14.25" spans="1:17">
-      <c r="A67" s="29" t="s">
+    <row r="67" ht="15.6" spans="1:17">
+      <c r="A67" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B67" s="25" t="s">
+      <c r="B67" s="10" t="s">
         <v>139</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D67" s="25">
+      <c r="D67" s="10">
         <v>320</v>
       </c>
-      <c r="E67" s="25">
+      <c r="E67" s="10">
         <v>220</v>
       </c>
-      <c r="F67" s="25">
+      <c r="F67" s="10">
         <v>120</v>
       </c>
-      <c r="G67" s="14"/>
+      <c r="G67" s="12"/>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
@@ -3647,22 +3621,22 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
     </row>
-    <row r="68" ht="14.25" spans="1:17">
-      <c r="A68" s="34"/>
-      <c r="B68" s="25" t="s">
+    <row r="68" ht="15.6" spans="1:17">
+      <c r="A68" s="13"/>
+      <c r="B68" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="C68" s="12" t="s">
+      <c r="C68" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="D68" s="25">
+      <c r="D68" s="10">
         <v>300</v>
       </c>
-      <c r="E68" s="25">
+      <c r="E68" s="10">
         <v>600</v>
       </c>
-      <c r="F68" s="25"/>
-      <c r="G68" s="14" t="s">
+      <c r="F68" s="10"/>
+      <c r="G68" s="12" t="s">
         <v>142</v>
       </c>
       <c r="H68" s="3"/>
@@ -3676,13 +3650,13 @@
       <c r="P68" s="3"/>
       <c r="Q68" s="3"/>
     </row>
-    <row r="69" ht="14.25" spans="1:17">
-      <c r="A69" s="18"/>
-      <c r="B69" s="13"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="13"/>
-      <c r="F69" s="13"/>
+    <row r="69" ht="15.6" spans="1:17">
+      <c r="A69" s="14"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
       <c r="G69" s="5"/>
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
@@ -3695,8 +3669,8 @@
       <c r="P69" s="3"/>
       <c r="Q69" s="3"/>
     </row>
-    <row r="70" ht="42.75" spans="1:17">
-      <c r="A70" s="21" t="s">
+    <row r="70" ht="46.8" spans="1:17">
+      <c r="A70" s="17" t="s">
         <v>7</v>
       </c>
       <c r="B70" s="6" t="s">
@@ -3726,8 +3700,8 @@
       <c r="P70" s="3"/>
       <c r="Q70" s="3"/>
     </row>
-    <row r="71" ht="57" spans="1:17">
-      <c r="A71" s="22"/>
+    <row r="71" ht="62.4" spans="1:17">
+      <c r="A71" s="18"/>
       <c r="B71" s="6" t="s">
         <v>146</v>
       </c>
@@ -3741,7 +3715,7 @@
       <c r="F71" s="6">
         <v>360</v>
       </c>
-      <c r="G71" s="38" t="s">
+      <c r="G71" s="27" t="s">
         <v>148</v>
       </c>
       <c r="H71" s="3"/>
@@ -3755,8 +3729,8 @@
       <c r="P71" s="3"/>
       <c r="Q71" s="3"/>
     </row>
-    <row r="72" ht="57" spans="1:17">
-      <c r="A72" s="22"/>
+    <row r="72" ht="62.4" spans="1:17">
+      <c r="A72" s="18"/>
       <c r="B72" s="6" t="s">
         <v>149</v>
       </c>
@@ -3770,7 +3744,7 @@
       <c r="F72" s="6">
         <v>600</v>
       </c>
-      <c r="G72" s="38" t="s">
+      <c r="G72" s="27" t="s">
         <v>151</v>
       </c>
       <c r="H72" s="3"/>
@@ -3784,12 +3758,12 @@
       <c r="P72" s="3"/>
       <c r="Q72" s="3"/>
     </row>
-    <row r="73" ht="71.25" spans="1:17">
-      <c r="A73" s="22"/>
+    <row r="73" ht="78" spans="1:17">
+      <c r="A73" s="18"/>
       <c r="B73" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="C73" s="39" t="s">
+      <c r="C73" s="28" t="s">
         <v>153</v>
       </c>
       <c r="D73" s="6">
@@ -3799,7 +3773,7 @@
         <v>200</v>
       </c>
       <c r="F73" s="6"/>
-      <c r="G73" s="39" t="s">
+      <c r="G73" s="28" t="s">
         <v>154</v>
       </c>
       <c r="H73" s="3"/>
@@ -3813,8 +3787,8 @@
       <c r="P73" s="3"/>
       <c r="Q73" s="3"/>
     </row>
-    <row r="74" ht="99.75" spans="1:17">
-      <c r="A74" s="22"/>
+    <row r="74" ht="109.2" spans="1:17">
+      <c r="A74" s="18"/>
       <c r="B74" s="6" t="s">
         <v>155</v>
       </c>
@@ -3826,7 +3800,7 @@
         <v>2900</v>
       </c>
       <c r="F74" s="6"/>
-      <c r="G74" s="39" t="s">
+      <c r="G74" s="28" t="s">
         <v>157</v>
       </c>
       <c r="H74" s="3"/>
@@ -3840,8 +3814,8 @@
       <c r="P74" s="3"/>
       <c r="Q74" s="3"/>
     </row>
-    <row r="75" ht="42.75" spans="1:17">
-      <c r="A75" s="22"/>
+    <row r="75" ht="46.8" spans="1:17">
+      <c r="A75" s="18"/>
       <c r="B75" s="6" t="s">
         <v>158</v>
       </c>
@@ -3871,8 +3845,8 @@
       <c r="P75" s="3"/>
       <c r="Q75" s="3"/>
     </row>
-    <row r="76" ht="57" spans="1:17">
-      <c r="A76" s="40"/>
+    <row r="76" ht="62.4" spans="1:17">
+      <c r="A76" s="18"/>
       <c r="B76" s="6" t="s">
         <v>161</v>
       </c>
@@ -3902,8 +3876,8 @@
       <c r="P76" s="3"/>
       <c r="Q76" s="3"/>
     </row>
-    <row r="77" ht="71.25" spans="1:17">
-      <c r="A77" s="23"/>
+    <row r="77" ht="78" spans="1:17">
+      <c r="A77" s="19"/>
       <c r="B77" s="6" t="s">
         <v>164</v>
       </c>
@@ -5533,7 +5507,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -5541,7 +5515,7 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
@@ -5550,7 +5524,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -5558,7 +5532,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
